--- a/py/forWork/doc/sort.xlsx
+++ b/py/forWork/doc/sort.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,7 +64,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,35 +441,242 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>完全没写</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="2" t="n"/>
+      <c r="X2" s="2" t="n"/>
+      <c r="Y2" s="2" t="n"/>
+      <c r="Z2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" s="2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>错写在音符角色中</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+      <c r="X3" s="2" t="n"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>循环次序错误</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
+      <c r="W4" s="2" t="n"/>
+      <c r="X4" s="2" t="n"/>
+      <c r="Y4" s="2" t="n"/>
+      <c r="Z4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
+      <c r="W5" s="2" t="n"/>
+      <c r="X5" s="2" t="n"/>
+      <c r="Y5" s="2" t="n"/>
+      <c r="Z5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>循环内缺少内容</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
+      <c r="W6" s="2" t="n"/>
+      <c r="X6" s="2" t="n"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/py/forWork/doc/sort.xlsx
+++ b/py/forWork/doc/sort.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="D1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="E1" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>4</v>
       </c>
       <c r="F1" s="2" t="n"/>
       <c r="G1" s="2" t="n"/>
@@ -483,17 +485,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.42</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>完全没写</t>
+          <t>没有编写让晶石随着小车相对移动的代码</t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
@@ -520,20 +522,20 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.26</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>错写在音符角色中</t>
+          <t>将生成晶石的代码错误放在了判断语句外</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -566,14 +568,14 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>循环次序错误</t>
+          <t>启动时没有调用生成晶石的代码</t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -600,16 +602,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.08</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -640,20 +642,20 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.04</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>循环内缺少内容</t>
+          <t>完全没写代码</t>
         </is>
       </c>
       <c r="F6" s="2" t="n"/>
@@ -678,6 +680,246 @@
       <c r="Y6" s="2" t="n"/>
       <c r="Z6" s="2" t="n"/>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.04819277108433735</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>循环中没有调用生成晶石的代码</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
+      <c r="W7" s="2" t="n"/>
+      <c r="X7" s="2" t="n"/>
+      <c r="Y7" s="2" t="n"/>
+      <c r="Z7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.03614457831325301</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>将能量加40写成了设为40</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
+      <c r="T8" s="2" t="n"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
+      <c r="W8" s="2" t="n"/>
+      <c r="X8" s="2" t="n"/>
+      <c r="Y8" s="2" t="n"/>
+      <c r="Z8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.03614457831325301</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>完全没写生成晶石的代码</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="n"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="n"/>
+      <c r="W9" s="2" t="n"/>
+      <c r="X9" s="2" t="n"/>
+      <c r="Y9" s="2" t="n"/>
+      <c r="Z9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.02409638554216868</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>将晶石能量加40写成了加1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="n"/>
+      <c r="W10" s="2" t="n"/>
+      <c r="X10" s="2" t="n"/>
+      <c r="Y10" s="2" t="n"/>
+      <c r="Z10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.02409638554216868</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>没有编写循环函数</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
+      <c r="W11" s="2" t="n"/>
+      <c r="X11" s="2" t="n"/>
+      <c r="Y11" s="2" t="n"/>
+      <c r="Z11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.02409638554216868</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>将晶石y-探险车y写成晶石y-晶石x</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="2" t="n"/>
+      <c r="V12" s="2" t="n"/>
+      <c r="W12" s="2" t="n"/>
+      <c r="X12" s="2" t="n"/>
+      <c r="Y12" s="2" t="n"/>
+      <c r="Z12" s="2" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/forWork/doc/sort.xlsx
+++ b/py/forWork/doc/sort.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,17 +605,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1325301204819277</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>完全没写代码</t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
@@ -645,17 +645,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>完全没写代码</t>
+          <t>循环中没有调用生成晶石的代码</t>
         </is>
       </c>
       <c r="F6" s="2" t="n"/>
@@ -685,17 +685,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.04819277108433735</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>循环中没有调用生成晶石的代码</t>
+          <t>完全没写生成晶石的代码</t>
         </is>
       </c>
       <c r="F7" s="2" t="n"/>
@@ -768,14 +768,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>完全没写生成晶石的代码</t>
+          <t>将晶石y-探险车y写成晶石y-晶石x</t>
         </is>
       </c>
       <c r="F9" s="2" t="n"/>
@@ -885,17 +885,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>将晶石y-探险车y写成晶石y-晶石x</t>
+          <t>将坐标相剪写为大于判断语句</t>
         </is>
       </c>
       <c r="F12" s="2" t="n"/>
@@ -920,6 +920,446 @@
       <c r="Y12" s="2" t="n"/>
       <c r="Z12" s="2" t="n"/>
     </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>没有编写小车碰见晶石的代码</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
+      <c r="W13" s="2" t="n"/>
+      <c r="X13" s="2" t="n"/>
+      <c r="Y13" s="2" t="n"/>
+      <c r="Z13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>循环中和启动时没有调用生成晶石的代码</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="n"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="n"/>
+      <c r="W14" s="2" t="n"/>
+      <c r="X14" s="2" t="n"/>
+      <c r="Y14" s="2" t="n"/>
+      <c r="Z14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>生成晶石代码中没有使用随机数</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="n"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="n"/>
+      <c r="W15" s="2" t="n"/>
+      <c r="X15" s="2" t="n"/>
+      <c r="Y15" s="2" t="n"/>
+      <c r="Z15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>将晶石能量加40写成了加5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
+      <c r="W16" s="2" t="n"/>
+      <c r="X16" s="2" t="n"/>
+      <c r="Y16" s="2" t="n"/>
+      <c r="Z16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>生成晶石代码书写后结构被破坏</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
+      <c r="W17" s="2" t="n"/>
+      <c r="X17" s="2" t="n"/>
+      <c r="Y17" s="2" t="n"/>
+      <c r="Z17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>将探险车错误写为小探险车</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
+      <c r="T18" s="2" t="n"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
+      <c r="W18" s="2" t="n"/>
+      <c r="X18" s="2" t="n"/>
+      <c r="Y18" s="2" t="n"/>
+      <c r="Z18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>未编写在判断语句中晶石能量增加和生成晶石的代码</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
+      <c r="R19" s="2" t="n"/>
+      <c r="S19" s="2" t="n"/>
+      <c r="T19" s="2" t="n"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="n"/>
+      <c r="W19" s="2" t="n"/>
+      <c r="X19" s="2" t="n"/>
+      <c r="Y19" s="2" t="n"/>
+      <c r="Z19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>将晶石能量加40写成了倒计时加40</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="n"/>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
+      <c r="W20" s="2" t="n"/>
+      <c r="X20" s="2" t="n"/>
+      <c r="Y20" s="2" t="n"/>
+      <c r="Z20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>多写了让晶石能量设为0的代码</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="2" t="n"/>
+      <c r="T21" s="2" t="n"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="n"/>
+      <c r="W21" s="2" t="n"/>
+      <c r="X21" s="2" t="n"/>
+      <c r="Y21" s="2" t="n"/>
+      <c r="Z21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>没有编写小车接触晶石后重新生成晶石的代码</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
+      <c r="R22" s="2" t="n"/>
+      <c r="S22" s="2" t="n"/>
+      <c r="T22" s="2" t="n"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="n"/>
+      <c r="W22" s="2" t="n"/>
+      <c r="X22" s="2" t="n"/>
+      <c r="Y22" s="2" t="n"/>
+      <c r="Z22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="2" t="n"/>
+      <c r="S23" s="2" t="n"/>
+      <c r="T23" s="2" t="n"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="n"/>
+      <c r="W23" s="2" t="n"/>
+      <c r="X23" s="2" t="n"/>
+      <c r="Y23" s="2" t="n"/>
+      <c r="Z23" s="2" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
